--- a/valeur joueur.xlsx
+++ b/valeur joueur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peate\Desktop\keeper 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patremblay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F16224E-C9EF-4843-8E27-1AD0205A494F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D736A458-7BED-4BF8-AD23-3762DEE40D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{35151FF6-C6C4-4DA9-9FC8-9D8B89FA71D8}"/>
+    <workbookView xWindow="51480" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{35151FF6-C6C4-4DA9-9FC8-9D8B89FA71D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B861A2-BFDF-44C6-83ED-46C7B7813AB0}">
   <dimension ref="A1:F266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239:B266"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,9 +1338,12 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
@@ -2943,10 +2946,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148">
         <v>4</v>
+      </c>
+      <c r="F148">
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3083,10 +3089,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160">
         <v>3</v>
+      </c>
+      <c r="F160">
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3482,10 +3491,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C194">
         <v>9</v>
+      </c>
+      <c r="F194">
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
